--- a/data/template/Database_properties_staged_work.xlsx
+++ b/data/template/Database_properties_staged_work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA1DE4A-E5EF-4453-BD8A-331DB6ED6071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA93F61F-8A61-43BC-A607-EB508AA1A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3084" yWindow="1080" windowWidth="18384" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表名称清单" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,14 @@
   </si>
   <si>
     <t>话题、协助者之间的关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>person_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +692,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1041,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A27CBFE-6D2C-41C2-A12E-2703179A0FA5}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1132,29 @@
         <v>8</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/template/Database_properties_staged_work.xlsx
+++ b/data/template/Database_properties_staged_work.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA93F61F-8A61-43BC-A607-EB508AA1A854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC51C96-A522-46F4-B2C2-347B0DC80DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="10696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表名称清单" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="日期列表" sheetId="29" r:id="rId3"/>
     <sheet name="话题列表" sheetId="2" r:id="rId4"/>
     <sheet name="话题属性列表" sheetId="37" r:id="rId5"/>
-    <sheet name="话题、协助者之间的关系表" sheetId="31" r:id="rId6"/>
-    <sheet name="父、子话题之间的关系表" sheetId="33" r:id="rId7"/>
-    <sheet name="日期、话题、属性之间的关系表" sheetId="34" r:id="rId8"/>
-    <sheet name="查询列表" sheetId="28" r:id="rId9"/>
-    <sheet name="查询日期、话题、属性列表" sheetId="32" r:id="rId10"/>
+    <sheet name="项目信息列表" sheetId="38" r:id="rId6"/>
+    <sheet name="话题、协助者之间的关系表" sheetId="31" r:id="rId7"/>
+    <sheet name="父、子话题之间的关系表" sheetId="33" r:id="rId8"/>
+    <sheet name="日期、话题、属性之间的关系表" sheetId="34" r:id="rId9"/>
+    <sheet name="查询列表" sheetId="28" r:id="rId10"/>
+    <sheet name="查询日期、话题、属性列表" sheetId="32" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +308,170 @@
   </si>
   <si>
     <t>职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_information_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_type1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_type2</t>
+  </si>
+  <si>
+    <t>project_type3</t>
+  </si>
+  <si>
+    <t>project_type4</t>
+  </si>
+  <si>
+    <t>项目类型1/任务类型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类型2/任务类型2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类型3/任务类型3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类型4/任务类型4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任主体/发起主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任单元/发起中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsible_center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsible_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsible_department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任部门/发起部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_planned_start_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_planned_end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier1_product_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级产品线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tier2_product_line</t>
+  </si>
+  <si>
+    <t>2级产品线</t>
+  </si>
+  <si>
+    <t>tier3_product_line</t>
+  </si>
+  <si>
+    <t>3级产品线</t>
+  </si>
+  <si>
+    <t>tier4_product_line</t>
+  </si>
+  <si>
+    <t>4级产品线</t>
+  </si>
+  <si>
+    <t>tier5_product_line</t>
+  </si>
+  <si>
+    <t>5级产品线</t>
+  </si>
+  <si>
+    <t>6级产品线</t>
+  </si>
+  <si>
+    <t>tier6_product_line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作令号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务发起人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>porject_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_initiator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schedule_requirements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -688,20 +853,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -709,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -717,7 +882,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -725,7 +890,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -733,7 +898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -741,161 +906,169 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -905,21 +1078,58 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDC1B18-44EE-4F65-919E-FE788CB00EC9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="27.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.86328125" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40208841-F240-4606-AB19-F83D306FF399}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1328125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -930,7 +1140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -941,7 +1151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -952,7 +1162,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -963,7 +1173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -974,7 +1184,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -985,7 +1195,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -996,7 +1206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1007,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1029,7 +1239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1056,17 +1266,17 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.53125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1089,7 +1299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1112,7 +1322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1135,7 +1345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
@@ -1171,20 +1381,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1207,7 +1417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1230,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1253,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -1276,7 +1486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -1299,7 +1509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -1334,20 +1544,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1370,7 +1580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1393,7 +1603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1416,7 +1626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1439,7 +1649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1462,7 +1672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -1497,20 +1707,20 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:B3"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1533,7 +1743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1556,7 +1766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -1586,6 +1796,583 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8363FA6-BC5D-4F03-9C86-9DF148CA063E}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D0E347-E10C-43D5-8147-F64132668462}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1594,17 +2381,17 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1328125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +2414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -1650,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -1673,7 +2460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G5" s="7"/>
     </row>
   </sheetData>
@@ -1682,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A47522A-87D2-4734-8965-F0F6A023460E}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -1691,17 +2478,17 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.86328125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1724,7 +2511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
@@ -1747,7 +2534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -1770,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G6" s="7"/>
     </row>
   </sheetData>
@@ -1779,7 +2566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13722C9-0973-4E69-8C9C-C826B4687644}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -1788,17 +2575,17 @@
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1821,7 +2608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
@@ -1844,7 +2631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1867,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>50</v>
       </c>
@@ -1890,48 +2677,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="G6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDC1B18-44EE-4F65-919E-FE788CB00EC9}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/template/Database_properties_staged_work.xlsx
+++ b/data/template/Database_properties_staged_work.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC51C96-A522-46F4-B2C2-347B0DC80DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D96769-5F62-49FE-8A67-3149B89A630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16996" windowHeight="10696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表名称清单" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,15 @@
     <sheet name="话题列表" sheetId="2" r:id="rId4"/>
     <sheet name="话题属性列表" sheetId="37" r:id="rId5"/>
     <sheet name="项目信息列表" sheetId="38" r:id="rId6"/>
-    <sheet name="话题、协助者之间的关系表" sheetId="31" r:id="rId7"/>
-    <sheet name="父、子话题之间的关系表" sheetId="33" r:id="rId8"/>
-    <sheet name="日期、话题、属性之间的关系表" sheetId="34" r:id="rId9"/>
-    <sheet name="查询列表" sheetId="28" r:id="rId10"/>
-    <sheet name="查询日期、话题、属性列表" sheetId="32" r:id="rId11"/>
+    <sheet name="会议纪要结论话题列表" sheetId="39" r:id="rId7"/>
+    <sheet name="会议纪要下一步行动话题列表" sheetId="40" r:id="rId8"/>
+    <sheet name="话题、协助者之间的关系表" sheetId="31" r:id="rId9"/>
+    <sheet name="父、子话题之间的关系表" sheetId="33" r:id="rId10"/>
+    <sheet name="日期、话题、属性之间的关系表" sheetId="34" r:id="rId11"/>
+    <sheet name="会议纪要结论父、子话题之间的关系表" sheetId="41" r:id="rId12"/>
+    <sheet name="会议纪要下一步行动父、子话题之间的关系表" sheetId="42" r:id="rId13"/>
+    <sheet name="查询列表" sheetId="28" r:id="rId14"/>
+    <sheet name="查询日期、话题、属性列表" sheetId="32" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="118">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +476,38 @@
   </si>
   <si>
     <t>项目计划结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议纪要结论话题列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议纪要下一步行动话题列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议纪要结论父、子话题之间的关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议纪要下一步行动父、子话题之间的关系表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conference_information_conclusion_topic_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conference_information_next_action_topic_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conference_information_conclusion_parent_children_topic_relationship_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conference_information_next_action_parent_children_topic_relationship_table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -860,13 +896,13 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -874,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
@@ -882,7 +918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -890,7 +926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -898,7 +934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
@@ -906,7 +942,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>66</v>
       </c>
@@ -914,159 +950,175 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
     </row>
@@ -1078,6 +1130,417 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A47522A-87D2-4734-8965-F0F6A023460E}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13722C9-0973-4E69-8C9C-C826B4687644}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3609445C-6E81-4218-B8B0-04C22153E215}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4348CE39-C783-4F6D-80FC-DCAE16C7614B}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDC1B18-44EE-4F65-919E-FE788CB00EC9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1085,13 +1548,13 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>55</v>
       </c>
@@ -1114,7 +1577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40208841-F240-4606-AB19-F83D306FF399}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1122,14 +1585,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1614,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1162,7 +1625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -1173,7 +1636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -1184,7 +1647,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -1195,7 +1658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1206,7 +1669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -1217,7 +1680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -1228,7 +1691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1239,7 +1702,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>40</v>
       </c>
@@ -1266,17 +1729,17 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1299,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1345,7 +1808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>64</v>
       </c>
@@ -1384,17 +1847,17 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1417,7 +1880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +1903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
@@ -1463,7 +1926,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
@@ -1486,7 +1949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
@@ -1509,7 +1972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
@@ -1547,17 +2010,17 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.46484375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1580,7 +2043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1603,7 +2066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1626,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1649,7 +2112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1672,7 +2135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -1710,17 +2173,17 @@
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1743,7 +2206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +2229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -1804,17 +2267,17 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +2300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1860,7 +2323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>28</v>
       </c>
@@ -1883,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -1906,7 +2369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>70</v>
       </c>
@@ -1929,7 +2392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>71</v>
       </c>
@@ -1952,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -1975,7 +2438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>73</v>
       </c>
@@ -1998,7 +2461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>81</v>
       </c>
@@ -2021,7 +2484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>80</v>
       </c>
@@ -2044,7 +2507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>82</v>
       </c>
@@ -2067,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>84</v>
       </c>
@@ -2090,7 +2553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>85</v>
       </c>
@@ -2113,7 +2576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
@@ -2136,7 +2599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>88</v>
       </c>
@@ -2159,7 +2622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>90</v>
       </c>
@@ -2182,7 +2645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
@@ -2205,7 +2668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
@@ -2228,7 +2691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>97</v>
       </c>
@@ -2251,7 +2714,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>99</v>
       </c>
@@ -2274,7 +2737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>104</v>
       </c>
@@ -2297,7 +2760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>105</v>
       </c>
@@ -2320,7 +2783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>106</v>
       </c>
@@ -2343,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>107</v>
       </c>
@@ -2373,6 +2836,332 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABDCA3D-A30D-4A5D-BF88-200B7F8614E5}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BC2199-F59C-42BD-BD30-57CAFE6EA63D}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7D0E347-E10C-43D5-8147-F64132668462}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2381,17 +3170,17 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2414,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>28</v>
       </c>
@@ -2437,7 +3226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -2460,225 +3249,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G5" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A47522A-87D2-4734-8965-F0F6A023460E}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="16.46484375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G6" s="7"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13722C9-0973-4E69-8C9C-C826B4687644}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="16.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/template/Database_properties_staged_work.xlsx
+++ b/data/template/Database_properties_staged_work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D96769-5F62-49FE-8A67-3149B89A630B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC3C97-E4CA-44E8-80C8-98C68E6BD145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="120">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -508,6 +508,14 @@
   </si>
   <si>
     <t>conference_information_next_action_parent_children_topic_relationship_table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_identification_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +901,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1722,16 +1730,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A27CBFE-6D2C-41C2-A12E-2703179A0FA5}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -1828,6 +1836,29 @@
         <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/template/Database_properties_staged_work.xlsx
+++ b/data/template/Database_properties_staged_work.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Software_Developments\Python_Workspace\Staged_work_manager\data\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EC3C97-E4CA-44E8-80C8-98C68E6BD145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E086B5-BDE0-4979-9C2C-C232CFC87BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="126">
   <si>
     <t>中文名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -516,6 +516,30 @@
   </si>
   <si>
     <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务来源分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>development_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_source_classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属团队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -901,7 +925,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1730,11 +1754,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A27CBFE-6D2C-41C2-A12E-2703179A0FA5}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1859,6 +1883,29 @@
         <v>8</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2291,11 +2338,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8363FA6-BC5D-4F03-9C86-9DF148CA063E}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2402,10 +2449,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>10</v>
@@ -2425,10 +2472,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>10</v>
@@ -2448,10 +2495,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>10</v>
@@ -2471,10 +2518,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>10</v>
@@ -2494,10 +2541,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>10</v>
@@ -2517,10 +2564,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>10</v>
@@ -2540,10 +2587,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>10</v>
@@ -2563,10 +2610,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>10</v>
@@ -2586,10 +2633,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>10</v>
@@ -2609,10 +2656,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>10</v>
@@ -2632,10 +2679,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
@@ -2655,10 +2702,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>10</v>
@@ -2678,10 +2725,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>10</v>
@@ -2701,10 +2748,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>10</v>
@@ -2724,10 +2771,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>10</v>
@@ -2747,10 +2794,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>10</v>
@@ -2770,10 +2817,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
@@ -2793,10 +2840,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>10</v>
@@ -2816,10 +2863,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>10</v>
@@ -2839,24 +2886,70 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>8</v>
       </c>
     </row>
